--- a/Bills/2023/8/ANGAD ENTERPRISES - DWARKA SEC-2 DTC DPT.xlsx
+++ b/Bills/2023/8/ANGAD ENTERPRISES - DWARKA SEC-2 DTC DPT.xlsx
@@ -1846,18 +1846,14 @@
       <c r="J1" s="1" t="n"/>
       <c r="K1" s="1" t="n"/>
       <c r="L1" s="1" t="n"/>
-      <c r="M1" s="2" t="n">
-        <v>31</v>
-      </c>
+      <c r="M1" s="2" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
       <c r="Q1" s="3" t="n"/>
       <c r="R1" s="3" t="n"/>
       <c r="S1" s="1" t="n"/>
-      <c r="T1" s="2" t="n">
-        <v>31</v>
-      </c>
+      <c r="T1" s="2" t="n"/>
       <c r="U1" s="1" t="n"/>
       <c r="V1" s="1" t="n"/>
       <c r="W1" s="1" t="n"/>
@@ -1893,22 +1889,14 @@
       <c r="J2" s="1" t="n"/>
       <c r="K2" s="1" t="n"/>
       <c r="L2" s="1" t="n"/>
-      <c r="M2" s="5" t="inlineStr">
-        <is>
-          <t>Aug-2023</t>
-        </is>
-      </c>
+      <c r="M2" s="5" t="n"/>
       <c r="N2" s="125" t="n"/>
       <c r="O2" s="125" t="n"/>
       <c r="P2" s="125" t="n"/>
       <c r="Q2" s="7" t="n"/>
       <c r="R2" s="7" t="n"/>
       <c r="S2" s="1" t="n"/>
-      <c r="T2" s="5" t="inlineStr">
-        <is>
-          <t>Jul-2023</t>
-        </is>
-      </c>
+      <c r="T2" s="5" t="n"/>
       <c r="U2" s="125" t="n"/>
       <c r="V2" s="125" t="n"/>
       <c r="W2" s="125" t="n"/>
@@ -1944,25 +1932,17 @@
       <c r="J3" s="1" t="n"/>
       <c r="K3" s="1" t="n"/>
       <c r="L3" s="1" t="n"/>
-      <c r="M3" s="108" t="n">
-        <v>27</v>
-      </c>
+      <c r="M3" s="108" t="n"/>
       <c r="N3" s="176" t="n"/>
       <c r="O3" s="175" t="n"/>
-      <c r="P3" s="108" t="n">
-        <v>4</v>
-      </c>
+      <c r="P3" s="108" t="n"/>
       <c r="Q3" s="176" t="n"/>
       <c r="R3" s="175" t="n"/>
       <c r="S3" s="1" t="n"/>
-      <c r="T3" s="108" t="n">
-        <v>26</v>
-      </c>
+      <c r="T3" s="108" t="n"/>
       <c r="U3" s="176" t="n"/>
       <c r="V3" s="175" t="n"/>
-      <c r="W3" s="108" t="n">
-        <v>5</v>
-      </c>
+      <c r="W3" s="108" t="n"/>
       <c r="X3" s="176" t="n"/>
       <c r="Y3" s="175" t="n"/>
     </row>
@@ -2275,21 +2255,9 @@
       <c r="C8" s="176" t="n"/>
       <c r="D8" s="176" t="n"/>
       <c r="E8" s="175" t="n"/>
-      <c r="F8" s="22" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G8" s="22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H8" s="22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="F8" s="22" t="n"/>
+      <c r="G8" s="22" t="n"/>
+      <c r="H8" s="22" t="n"/>
       <c r="I8" s="23">
         <f>SUM($F$8:$H$8)</f>
         <v/>
@@ -2363,15 +2331,9 @@
       <c r="C9" s="178" t="n"/>
       <c r="D9" s="178" t="n"/>
       <c r="E9" s="177" t="n"/>
-      <c r="F9" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="G9" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="25" t="n">
-        <v>0</v>
-      </c>
+      <c r="F9" s="25" t="n"/>
+      <c r="G9" s="25" t="n"/>
+      <c r="H9" s="25" t="n"/>
       <c r="I9" s="26">
         <f>SUM($F$9:$H$9)</f>
         <v/>
@@ -2555,13 +2517,13 @@
         </is>
       </c>
       <c r="C12" s="41" t="n">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="D12" s="42" t="n">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="E12" s="42" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F12" s="42">
         <f>D12-C12</f>
@@ -2572,7 +2534,7 @@
         <v/>
       </c>
       <c r="H12" s="41" t="n">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="I12" s="44">
         <f>H12*K12/$M$1</f>
@@ -2619,13 +2581,13 @@
         </is>
       </c>
       <c r="C13" s="41" t="n">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="D13" s="42" t="n">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="E13" s="42" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F13" s="42">
         <f>D13-C13</f>
@@ -2636,7 +2598,7 @@
         <v/>
       </c>
       <c r="H13" s="41" t="n">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="I13" s="44">
         <f>H13*K13/$M$1</f>
@@ -2686,13 +2648,13 @@
         </is>
       </c>
       <c r="C14" s="41" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D14" s="42" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E14" s="42" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F14" s="42">
         <f>D14+E14-C14</f>
@@ -2703,7 +2665,7 @@
         <v/>
       </c>
       <c r="H14" s="41" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I14" s="44">
         <f>H14*K14/$M$1</f>
@@ -2753,13 +2715,13 @@
         </is>
       </c>
       <c r="C15" s="41" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D15" s="42" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E15" s="42" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F15" s="42">
         <f>D15+E15-C15</f>
@@ -2770,7 +2732,7 @@
         <v/>
       </c>
       <c r="H15" s="41" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I15" s="44">
         <f>H15*K15/$M$1</f>
@@ -3373,7 +3335,7 @@
         <v/>
       </c>
       <c r="H24" s="41" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I24" s="44">
         <f>H24*K24/26</f>
@@ -3440,7 +3402,7 @@
         <v/>
       </c>
       <c r="H25" s="41" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I25" s="44">
         <f>H25*K25/26</f>
@@ -3507,7 +3469,7 @@
         <v/>
       </c>
       <c r="H26" s="41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="44">
         <f>H26*K26/26</f>
@@ -3574,7 +3536,7 @@
         <v/>
       </c>
       <c r="H27" s="41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" s="44">
         <f>H27*K27/26</f>
@@ -3775,7 +3737,7 @@
         <v/>
       </c>
       <c r="H30" s="41" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I30" s="44">
         <f>H30*K30/$M$1</f>
@@ -3842,7 +3804,7 @@
         <v/>
       </c>
       <c r="H31" s="41" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I31" s="44">
         <f>H31*K31/$M$1</f>
@@ -3895,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="D32" s="42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="42" t="n">
         <v>0</v>
@@ -3962,7 +3924,7 @@
         <v>0</v>
       </c>
       <c r="D33" s="42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" s="42" t="n">
         <v>0</v>
@@ -4840,7 +4802,7 @@
       <c r="F50" s="170" t="n"/>
       <c r="G50" s="171" t="n"/>
       <c r="H50" s="66" t="n">
-        <v>3710</v>
+        <v>0</v>
       </c>
       <c r="I50" s="137">
         <f>SUM(H50:H52)</f>
@@ -4876,7 +4838,7 @@
       <c r="F51" s="176" t="n"/>
       <c r="G51" s="175" t="n"/>
       <c r="H51" s="67" t="n">
-        <v>1550</v>
+        <v>0</v>
       </c>
       <c r="I51" s="190" t="n"/>
       <c r="J51" s="1" t="n"/>
@@ -4976,7 +4938,9 @@
       <c r="E54" s="176" t="n"/>
       <c r="F54" s="176" t="n"/>
       <c r="G54" s="175" t="n"/>
-      <c r="H54" s="81" t="n"/>
+      <c r="H54" s="81" t="n">
+        <v>0</v>
+      </c>
       <c r="I54" s="86">
         <f>SUM(H54:H61)</f>
         <v/>
@@ -5010,7 +4974,9 @@
       <c r="E55" s="176" t="n"/>
       <c r="F55" s="176" t="n"/>
       <c r="G55" s="175" t="n"/>
-      <c r="H55" s="81" t="n"/>
+      <c r="H55" s="81" t="n">
+        <v>0</v>
+      </c>
       <c r="I55" s="192" t="n"/>
       <c r="J55" s="1" t="n"/>
       <c r="K55" s="1" t="n"/>
@@ -5041,7 +5007,9 @@
       <c r="E56" s="176" t="n"/>
       <c r="F56" s="176" t="n"/>
       <c r="G56" s="175" t="n"/>
-      <c r="H56" s="81" t="n"/>
+      <c r="H56" s="81" t="n">
+        <v>0</v>
+      </c>
       <c r="I56" s="192" t="n"/>
       <c r="J56" s="1" t="n"/>
       <c r="K56" s="1" t="n"/>
@@ -5072,7 +5040,9 @@
       <c r="E57" s="176" t="n"/>
       <c r="F57" s="176" t="n"/>
       <c r="G57" s="175" t="n"/>
-      <c r="H57" s="81" t="n"/>
+      <c r="H57" s="81" t="n">
+        <v>0</v>
+      </c>
       <c r="I57" s="192" t="n"/>
       <c r="J57" s="1" t="n"/>
       <c r="K57" s="1" t="n"/>
@@ -5103,7 +5073,9 @@
       <c r="E58" s="176" t="n"/>
       <c r="F58" s="176" t="n"/>
       <c r="G58" s="175" t="n"/>
-      <c r="H58" s="81" t="n"/>
+      <c r="H58" s="81" t="n">
+        <v>0</v>
+      </c>
       <c r="I58" s="192" t="n"/>
       <c r="J58" s="1" t="n"/>
       <c r="K58" s="1" t="n"/>
@@ -5134,7 +5106,9 @@
       <c r="E59" s="176" t="n"/>
       <c r="F59" s="176" t="n"/>
       <c r="G59" s="175" t="n"/>
-      <c r="H59" s="81" t="n"/>
+      <c r="H59" s="81" t="n">
+        <v>0</v>
+      </c>
       <c r="I59" s="192" t="n"/>
       <c r="J59" s="1" t="n"/>
       <c r="K59" s="1" t="n"/>
@@ -5165,7 +5139,9 @@
       <c r="E60" s="176" t="n"/>
       <c r="F60" s="176" t="n"/>
       <c r="G60" s="175" t="n"/>
-      <c r="H60" s="81" t="n"/>
+      <c r="H60" s="81" t="n">
+        <v>0</v>
+      </c>
       <c r="I60" s="192" t="n"/>
       <c r="J60" s="1" t="n"/>
       <c r="K60" s="1" t="n"/>
@@ -5196,7 +5172,9 @@
       <c r="E61" s="176" t="n"/>
       <c r="F61" s="176" t="n"/>
       <c r="G61" s="175" t="n"/>
-      <c r="H61" s="82" t="n"/>
+      <c r="H61" s="82" t="n">
+        <v>0</v>
+      </c>
       <c r="I61" s="192" t="n"/>
       <c r="J61" s="1" t="n"/>
       <c r="K61" s="1" t="n"/>
@@ -5299,7 +5277,7 @@
       <c r="F64" s="178" t="n"/>
       <c r="G64" s="177" t="n"/>
       <c r="H64" s="71" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="I64" s="190" t="n"/>
       <c r="J64" s="1" t="n"/>
